--- a/unctad/US.FdiFlowsStock_20250311_172942/dados-uncatad.xlsx
+++ b/unctad/US.FdiFlowsStock_20250311_172942/dados-uncatad.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://banco365-my.sharepoint.com/personal/andreluizbrito_bb_com_br1/Documents/_github/datasets/unctad/US.FdiFlowsStock_20250311_172942/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1A697F58-FF32-4DAA-964A-CDB95618A793}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="6" documentId="8_{1A697F58-FF32-4DAA-964A-CDB95618A793}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E83CFBD4-6EB5-48EB-A6AD-4510E41CE7F0}"/>
   <bookViews>
-    <workbookView xWindow="2460" yWindow="7140" windowWidth="33735" windowHeight="23445" tabRatio="885" xr2:uid="{3DABD7D5-E9C3-44BF-9298-1CC2631AF4B0}"/>
+    <workbookView xWindow="10920" yWindow="6150" windowWidth="40845" windowHeight="23445" tabRatio="885" xr2:uid="{3DABD7D5-E9C3-44BF-9298-1CC2631AF4B0}"/>
   </bookViews>
   <sheets>
     <sheet name="dados-uncatad" sheetId="1" r:id="rId1"/>
@@ -1355,121 +1355,123 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6E60613-6CD4-4B61-9FC6-A50E1F6B26A9}">
-  <dimension ref="A1:CZ46"/>
+  <dimension ref="A1:CZ47"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="CW2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="CX2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="CZ20" sqref="CZ20"/>
+      <selection pane="bottomRight" activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" zeroHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="1"/>
+    <col min="1" max="1" width="9.140625" style="1" customWidth="1"/>
     <col min="2" max="2" width="38.5703125" customWidth="1"/>
-    <col min="3" max="3" width="42.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="38.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="42.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="34.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="38.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="42.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="34.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="38.5703125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="42.85546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="34.7109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="38.5703125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="42.85546875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="34.7109375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="38.5703125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="42.85546875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="34.7109375" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="38.5703125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="42.85546875" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="34.7109375" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="38.5703125" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="42.85546875" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="34.7109375" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="38.5703125" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="42.85546875" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="34.7109375" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="38.5703125" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="42.85546875" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="34.7109375" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="38.5703125" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="42.85546875" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="34.7109375" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="38.5703125" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="42.85546875" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="34.7109375" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="38.5703125" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="42.85546875" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="34.7109375" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="38.5703125" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="42.85546875" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="34.7109375" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="38.5703125" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="42.85546875" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="34.7109375" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="38.5703125" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="42.85546875" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="34.7109375" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="38.5703125" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="42.85546875" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="34.7109375" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="38.5703125" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="42.85546875" bestFit="1" customWidth="1"/>
-    <col min="55" max="55" width="34.7109375" bestFit="1" customWidth="1"/>
-    <col min="56" max="56" width="38.5703125" bestFit="1" customWidth="1"/>
-    <col min="57" max="57" width="42.85546875" bestFit="1" customWidth="1"/>
-    <col min="58" max="58" width="34.7109375" bestFit="1" customWidth="1"/>
-    <col min="59" max="59" width="38.5703125" bestFit="1" customWidth="1"/>
-    <col min="60" max="60" width="42.85546875" bestFit="1" customWidth="1"/>
-    <col min="61" max="61" width="34.7109375" bestFit="1" customWidth="1"/>
-    <col min="62" max="62" width="38.5703125" bestFit="1" customWidth="1"/>
-    <col min="63" max="63" width="42.85546875" bestFit="1" customWidth="1"/>
-    <col min="64" max="64" width="34.7109375" bestFit="1" customWidth="1"/>
-    <col min="65" max="65" width="38.5703125" bestFit="1" customWidth="1"/>
-    <col min="66" max="66" width="42.85546875" bestFit="1" customWidth="1"/>
-    <col min="67" max="67" width="34.7109375" bestFit="1" customWidth="1"/>
-    <col min="68" max="68" width="38.5703125" bestFit="1" customWidth="1"/>
-    <col min="69" max="69" width="42.85546875" bestFit="1" customWidth="1"/>
-    <col min="70" max="70" width="34.7109375" bestFit="1" customWidth="1"/>
-    <col min="71" max="71" width="38.5703125" bestFit="1" customWidth="1"/>
-    <col min="72" max="72" width="42.85546875" bestFit="1" customWidth="1"/>
-    <col min="73" max="73" width="34.7109375" bestFit="1" customWidth="1"/>
-    <col min="74" max="74" width="38.5703125" bestFit="1" customWidth="1"/>
-    <col min="75" max="75" width="42.85546875" bestFit="1" customWidth="1"/>
-    <col min="76" max="76" width="34.7109375" bestFit="1" customWidth="1"/>
-    <col min="77" max="77" width="38.5703125" bestFit="1" customWidth="1"/>
-    <col min="78" max="78" width="42.85546875" bestFit="1" customWidth="1"/>
-    <col min="79" max="79" width="34.7109375" bestFit="1" customWidth="1"/>
-    <col min="80" max="80" width="38.5703125" bestFit="1" customWidth="1"/>
-    <col min="81" max="81" width="42.85546875" bestFit="1" customWidth="1"/>
-    <col min="82" max="82" width="34.7109375" bestFit="1" customWidth="1"/>
-    <col min="83" max="83" width="38.5703125" bestFit="1" customWidth="1"/>
-    <col min="84" max="84" width="42.85546875" bestFit="1" customWidth="1"/>
-    <col min="85" max="85" width="34.7109375" bestFit="1" customWidth="1"/>
-    <col min="86" max="86" width="38.5703125" bestFit="1" customWidth="1"/>
-    <col min="87" max="87" width="42.85546875" bestFit="1" customWidth="1"/>
-    <col min="88" max="88" width="34.7109375" bestFit="1" customWidth="1"/>
-    <col min="89" max="89" width="38.5703125" bestFit="1" customWidth="1"/>
-    <col min="90" max="90" width="42.85546875" bestFit="1" customWidth="1"/>
-    <col min="91" max="91" width="34.7109375" bestFit="1" customWidth="1"/>
-    <col min="92" max="92" width="38.5703125" bestFit="1" customWidth="1"/>
-    <col min="93" max="93" width="42.85546875" bestFit="1" customWidth="1"/>
-    <col min="94" max="94" width="34.7109375" bestFit="1" customWidth="1"/>
-    <col min="95" max="95" width="38.5703125" bestFit="1" customWidth="1"/>
-    <col min="96" max="96" width="42.85546875" bestFit="1" customWidth="1"/>
-    <col min="97" max="97" width="34.7109375" bestFit="1" customWidth="1"/>
-    <col min="98" max="98" width="38.5703125" bestFit="1" customWidth="1"/>
-    <col min="99" max="99" width="42.85546875" bestFit="1" customWidth="1"/>
-    <col min="100" max="100" width="34.7109375" bestFit="1" customWidth="1"/>
-    <col min="101" max="101" width="38.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="42.85546875" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="34.7109375" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="38.5703125" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="42.85546875" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="34.7109375" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="38.5703125" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="42.85546875" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="34.7109375" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="38.5703125" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="42.85546875" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="34.7109375" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="38.5703125" hidden="1" customWidth="1"/>
+    <col min="15" max="15" width="42.85546875" hidden="1" customWidth="1"/>
+    <col min="16" max="16" width="34.7109375" hidden="1" customWidth="1"/>
+    <col min="17" max="17" width="38.5703125" hidden="1" customWidth="1"/>
+    <col min="18" max="18" width="42.85546875" hidden="1" customWidth="1"/>
+    <col min="19" max="19" width="34.7109375" hidden="1" customWidth="1"/>
+    <col min="20" max="20" width="38.5703125" hidden="1" customWidth="1"/>
+    <col min="21" max="21" width="42.85546875" hidden="1" customWidth="1"/>
+    <col min="22" max="22" width="34.7109375" hidden="1" customWidth="1"/>
+    <col min="23" max="23" width="38.5703125" hidden="1" customWidth="1"/>
+    <col min="24" max="24" width="42.85546875" hidden="1" customWidth="1"/>
+    <col min="25" max="25" width="34.7109375" hidden="1" customWidth="1"/>
+    <col min="26" max="26" width="38.5703125" hidden="1" customWidth="1"/>
+    <col min="27" max="27" width="42.85546875" hidden="1" customWidth="1"/>
+    <col min="28" max="28" width="34.7109375" hidden="1" customWidth="1"/>
+    <col min="29" max="29" width="38.5703125" hidden="1" customWidth="1"/>
+    <col min="30" max="30" width="42.85546875" hidden="1" customWidth="1"/>
+    <col min="31" max="31" width="34.7109375" hidden="1" customWidth="1"/>
+    <col min="32" max="32" width="38.5703125" hidden="1" customWidth="1"/>
+    <col min="33" max="33" width="42.85546875" hidden="1" customWidth="1"/>
+    <col min="34" max="34" width="34.7109375" hidden="1" customWidth="1"/>
+    <col min="35" max="35" width="38.5703125" hidden="1" customWidth="1"/>
+    <col min="36" max="36" width="42.85546875" hidden="1" customWidth="1"/>
+    <col min="37" max="37" width="34.7109375" hidden="1" customWidth="1"/>
+    <col min="38" max="38" width="38.5703125" hidden="1" customWidth="1"/>
+    <col min="39" max="39" width="42.85546875" hidden="1" customWidth="1"/>
+    <col min="40" max="40" width="34.7109375" hidden="1" customWidth="1"/>
+    <col min="41" max="41" width="38.5703125" hidden="1" customWidth="1"/>
+    <col min="42" max="42" width="42.85546875" hidden="1" customWidth="1"/>
+    <col min="43" max="43" width="34.7109375" hidden="1" customWidth="1"/>
+    <col min="44" max="44" width="38.5703125" hidden="1" customWidth="1"/>
+    <col min="45" max="45" width="42.85546875" hidden="1" customWidth="1"/>
+    <col min="46" max="46" width="34.7109375" hidden="1" customWidth="1"/>
+    <col min="47" max="47" width="38.5703125" hidden="1" customWidth="1"/>
+    <col min="48" max="48" width="42.85546875" hidden="1" customWidth="1"/>
+    <col min="49" max="49" width="34.7109375" hidden="1" customWidth="1"/>
+    <col min="50" max="50" width="38.5703125" hidden="1" customWidth="1"/>
+    <col min="51" max="51" width="42.85546875" hidden="1" customWidth="1"/>
+    <col min="52" max="52" width="34.7109375" hidden="1" customWidth="1"/>
+    <col min="53" max="53" width="38.5703125" hidden="1" customWidth="1"/>
+    <col min="54" max="54" width="42.85546875" hidden="1" customWidth="1"/>
+    <col min="55" max="55" width="34.7109375" hidden="1" customWidth="1"/>
+    <col min="56" max="56" width="38.5703125" hidden="1" customWidth="1"/>
+    <col min="57" max="57" width="42.85546875" hidden="1" customWidth="1"/>
+    <col min="58" max="58" width="34.7109375" hidden="1" customWidth="1"/>
+    <col min="59" max="59" width="38.5703125" hidden="1" customWidth="1"/>
+    <col min="60" max="60" width="42.85546875" hidden="1" customWidth="1"/>
+    <col min="61" max="61" width="34.7109375" hidden="1" customWidth="1"/>
+    <col min="62" max="62" width="38.5703125" hidden="1" customWidth="1"/>
+    <col min="63" max="63" width="42.85546875" hidden="1" customWidth="1"/>
+    <col min="64" max="64" width="34.7109375" hidden="1" customWidth="1"/>
+    <col min="65" max="65" width="38.5703125" hidden="1" customWidth="1"/>
+    <col min="66" max="66" width="42.85546875" hidden="1" customWidth="1"/>
+    <col min="67" max="67" width="34.7109375" hidden="1" customWidth="1"/>
+    <col min="68" max="68" width="38.5703125" hidden="1" customWidth="1"/>
+    <col min="69" max="69" width="42.85546875" hidden="1" customWidth="1"/>
+    <col min="70" max="70" width="34.7109375" hidden="1" customWidth="1"/>
+    <col min="71" max="71" width="38.5703125" hidden="1" customWidth="1"/>
+    <col min="72" max="72" width="42.85546875" hidden="1" customWidth="1"/>
+    <col min="73" max="73" width="34.7109375" hidden="1" customWidth="1"/>
+    <col min="74" max="74" width="38.5703125" hidden="1" customWidth="1"/>
+    <col min="75" max="75" width="42.85546875" hidden="1" customWidth="1"/>
+    <col min="76" max="76" width="34.7109375" hidden="1" customWidth="1"/>
+    <col min="77" max="77" width="38.5703125" hidden="1" customWidth="1"/>
+    <col min="78" max="78" width="42.85546875" hidden="1" customWidth="1"/>
+    <col min="79" max="79" width="34.7109375" hidden="1" customWidth="1"/>
+    <col min="80" max="80" width="38.5703125" hidden="1" customWidth="1"/>
+    <col min="81" max="81" width="42.85546875" hidden="1" customWidth="1"/>
+    <col min="82" max="82" width="34.7109375" hidden="1" customWidth="1"/>
+    <col min="83" max="83" width="38.5703125" hidden="1" customWidth="1"/>
+    <col min="84" max="84" width="42.85546875" hidden="1" customWidth="1"/>
+    <col min="85" max="85" width="34.7109375" hidden="1" customWidth="1"/>
+    <col min="86" max="86" width="38.5703125" hidden="1" customWidth="1"/>
+    <col min="87" max="87" width="42.85546875" hidden="1" customWidth="1"/>
+    <col min="88" max="88" width="34.7109375" hidden="1" customWidth="1"/>
+    <col min="89" max="89" width="38.5703125" hidden="1" customWidth="1"/>
+    <col min="90" max="90" width="42.85546875" hidden="1" customWidth="1"/>
+    <col min="91" max="91" width="34.7109375" hidden="1" customWidth="1"/>
+    <col min="92" max="92" width="38.5703125" hidden="1" customWidth="1"/>
+    <col min="93" max="93" width="42.85546875" hidden="1" customWidth="1"/>
+    <col min="94" max="94" width="34.7109375" hidden="1" customWidth="1"/>
+    <col min="95" max="95" width="38.5703125" hidden="1" customWidth="1"/>
+    <col min="96" max="96" width="42.85546875" hidden="1" customWidth="1"/>
+    <col min="97" max="97" width="34.7109375" hidden="1" customWidth="1"/>
+    <col min="98" max="98" width="38.5703125" hidden="1" customWidth="1"/>
+    <col min="99" max="99" width="42.85546875" hidden="1" customWidth="1"/>
+    <col min="100" max="100" width="34.7109375" hidden="1" customWidth="1"/>
+    <col min="101" max="101" width="38.5703125" hidden="1" customWidth="1"/>
     <col min="102" max="102" width="45.28515625" bestFit="1" customWidth="1"/>
-    <col min="103" max="103" width="34.7109375" bestFit="1" customWidth="1"/>
-    <col min="104" max="104" width="38.5703125" bestFit="1" customWidth="1"/>
+    <col min="103" max="103" width="34.7109375" hidden="1" customWidth="1"/>
+    <col min="104" max="104" width="38.5703125" hidden="1" customWidth="1"/>
+    <col min="105" max="105" width="9.140625" customWidth="1"/>
+    <col min="106" max="16384" width="9.140625" hidden="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:104" x14ac:dyDescent="0.25">
@@ -9796,6 +9798,7 @@
       <c r="CY46" s="3"/>
       <c r="CZ46" s="3"/>
     </row>
+    <row r="47" spans="1:104" x14ac:dyDescent="0.25"/>
   </sheetData>
   <autoFilter ref="A1:CZ1" xr:uid="{B6E60613-6CD4-4B61-9FC6-A50E1F6B26A9}"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
